--- a/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754DDEDC-5C3D-43B4-B843-C12617776793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{749B8EBB-6B44-49A6-AFD3-D0D4C3F50183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9F880077-91AD-4FA0-AFDE-5AF10DC7F0FA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC230F00-29DD-4136-8D53-D4A218BA4F17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1 vaso/taza</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1 vaso/taza</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>2 vasos/tazas</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>3 ó más vasos/tazas</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>1 vaso/taza</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>22,35%</t>
@@ -100,9 +355,6 @@
     <t>29,7%</t>
   </si>
   <si>
-    <t>2 vasos/tazas</t>
-  </si>
-  <si>
     <t>48,82%</t>
   </si>
   <si>
@@ -130,9 +382,6 @@
     <t>54,7%</t>
   </si>
   <si>
-    <t>3 ó más vasos/tazas</t>
-  </si>
-  <si>
     <t>26,01%</t>
   </si>
   <si>
@@ -160,153 +409,144 @@
     <t>24,07%</t>
   </si>
   <si>
-    <t>Menos de 1 vaso/taza</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
     <t>29,01%</t>
   </si>
   <si>
@@ -388,244 +628,22 @@
     <t>21,72%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>22,38%</t>
@@ -709,27 +727,225 @@
     <t>21,96%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
   <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
     <t>16,9%</t>
   </si>
   <si>
@@ -805,136 +1021,127 @@
     <t>20,21%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>21,08%</t>
@@ -1015,211 +1222,28 @@
     <t>25,89%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>22,3%</t>
@@ -1297,33 +1321,213 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
   </si>
   <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
     <t>25,1%</t>
   </si>
   <si>
@@ -1393,136 +1597,133 @@
     <t>15,7%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
     <t>9,93%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>25,51%</t>
@@ -1600,205 +1801,19 @@
     <t>15,76%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>26,33%</t>
@@ -1874,21 +1889,6 @@
   </si>
   <si>
     <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7148B0BC-8398-4902-9475-5B66E6B7772D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19CE4E-968E-4793-9ED4-D480FB5A4824}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2398,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>40839</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2413,187 +2413,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>47759</v>
+        <v>1597</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1597</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>138</v>
-      </c>
-      <c r="N4" s="7">
-        <v>88598</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>136</v>
-      </c>
-      <c r="D5" s="7">
-        <v>89205</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6534</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>132</v>
-      </c>
-      <c r="I5" s="7">
-        <v>82427</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>15</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11401</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>268</v>
-      </c>
-      <c r="N5" s="7">
-        <v>171632</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11101</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>72</v>
-      </c>
-      <c r="D6" s="7">
-        <v>47522</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10584</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>28</v>
+      </c>
+      <c r="N6" s="7">
+        <v>21684</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7">
-        <v>21732</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>107</v>
-      </c>
-      <c r="N6" s="7">
-        <v>69255</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>5155</v>
+        <v>6280</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2367</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5589</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8647</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>17</v>
-      </c>
-      <c r="N7" s="7">
-        <v>10744</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,255 +2602,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>182721</v>
+        <v>22248</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="I8" s="7">
-        <v>157507</v>
+        <v>21081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>530</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>340228</v>
+        <v>43329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>22347</v>
+        <v>5589</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4245</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28771</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>16</v>
+      </c>
+      <c r="N9" s="7">
+        <v>9834</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>75</v>
-      </c>
-      <c r="N9" s="7">
-        <v>51118</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>58579</v>
+        <v>22347</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28771</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>70</v>
-      </c>
-      <c r="I10" s="7">
-        <v>46839</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>75</v>
+      </c>
+      <c r="N10" s="7">
+        <v>51118</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>160</v>
-      </c>
-      <c r="N10" s="7">
-        <v>105418</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>21211</v>
+        <v>58579</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>70</v>
+      </c>
+      <c r="I11" s="7">
+        <v>46839</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18441</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>160</v>
+      </c>
+      <c r="N11" s="7">
+        <v>105418</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>60</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39653</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>5589</v>
+        <v>21211</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>28</v>
+      </c>
+      <c r="I12" s="7">
+        <v>18441</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4245</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>60</v>
+      </c>
+      <c r="N12" s="7">
+        <v>39653</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9834</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2865,13 @@
         <v>107727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -2880,13 +2880,13 @@
         <v>98296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>311</v>
@@ -2895,219 +2895,219 @@
         <v>206023</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>51462</v>
+        <v>5155</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5589</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>71</v>
-      </c>
-      <c r="I14" s="7">
-        <v>53847</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>17</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10744</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>146</v>
-      </c>
-      <c r="N14" s="7">
-        <v>105308</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="D15" s="7">
-        <v>82530</v>
+        <v>40839</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>76</v>
+      </c>
+      <c r="I15" s="7">
+        <v>47759</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>119</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91468</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>138</v>
+      </c>
+      <c r="N15" s="7">
+        <v>88598</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>242</v>
-      </c>
-      <c r="N15" s="7">
-        <v>173999</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="D16" s="7">
-        <v>36675</v>
+        <v>89205</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>132</v>
+      </c>
+      <c r="I16" s="7">
+        <v>82427</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>27810</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>268</v>
+      </c>
+      <c r="N16" s="7">
+        <v>171632</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>64485</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>6735</v>
+        <v>47522</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7">
+        <v>21732</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6608</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>107</v>
+      </c>
+      <c r="N17" s="7">
+        <v>69255</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="7">
-        <v>19</v>
-      </c>
-      <c r="N17" s="7">
-        <v>13343</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,255 +3116,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>177402</v>
+        <v>182721</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="I18" s="7">
-        <v>179733</v>
+        <v>157507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>357135</v>
+        <v>340228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4867</v>
+        <v>3352</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3013</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6534</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6365</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M19" s="7">
-        <v>15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11401</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>11101</v>
+        <v>18100</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="7">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25715</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10584</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>69</v>
+      </c>
+      <c r="N20" s="7">
+        <v>43814</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M20" s="7">
-        <v>28</v>
-      </c>
-      <c r="N20" s="7">
-        <v>21684</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7">
-        <v>6280</v>
+        <v>69577</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="7">
+        <v>109</v>
+      </c>
+      <c r="I21" s="7">
+        <v>65507</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2367</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>217</v>
+      </c>
+      <c r="N21" s="7">
+        <v>135084</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M21" s="7">
-        <v>11</v>
-      </c>
-      <c r="N21" s="7">
-        <v>8647</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>33830</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="7">
+        <v>34</v>
+      </c>
+      <c r="I22" s="7">
+        <v>20268</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1597</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>87</v>
+      </c>
+      <c r="N22" s="7">
+        <v>54098</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1597</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,246 +3373,246 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7">
-        <v>22248</v>
+        <v>124859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7">
-        <v>21081</v>
+        <v>114502</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>56</v>
+        <v>383</v>
       </c>
       <c r="N23" s="7">
-        <v>43329</v>
+        <v>239360</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>18100</v>
+        <v>6735</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6608</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25715</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7">
+        <v>13343</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M24" s="7">
-        <v>69</v>
-      </c>
-      <c r="N24" s="7">
-        <v>43814</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>69577</v>
+        <v>51462</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>71</v>
+      </c>
+      <c r="I25" s="7">
+        <v>53847</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="7">
-        <v>109</v>
-      </c>
-      <c r="I25" s="7">
-        <v>65507</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>146</v>
+      </c>
+      <c r="N25" s="7">
+        <v>105308</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M25" s="7">
-        <v>217</v>
-      </c>
-      <c r="N25" s="7">
-        <v>135084</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>33830</v>
+        <v>82530</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>119</v>
+      </c>
+      <c r="I26" s="7">
+        <v>91468</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="7">
-        <v>34</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20268</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>242</v>
+      </c>
+      <c r="N26" s="7">
+        <v>173999</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M26" s="7">
-        <v>87</v>
-      </c>
-      <c r="N26" s="7">
-        <v>54098</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7">
-        <v>3352</v>
+        <v>36675</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>36</v>
+      </c>
+      <c r="I27" s="7">
+        <v>27810</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="7">
-        <v>5</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3013</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="M27" s="7">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N27" s="7">
-        <v>6365</v>
+        <v>64485</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>193</v>
@@ -3630,49 +3630,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D28" s="7">
-        <v>124859</v>
+        <v>177402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I28" s="7">
-        <v>114502</v>
+        <v>179733</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="N28" s="7">
-        <v>239360</v>
+        <v>357135</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,10 +3683,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7">
-        <v>137614</v>
+        <v>20830</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>196</v>
@@ -3695,181 +3695,181 @@
         <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="7">
+        <v>32</v>
+      </c>
+      <c r="I29" s="7">
+        <v>21052</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H29" s="7">
-        <v>240</v>
-      </c>
-      <c r="I29" s="7">
-        <v>162624</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>64</v>
+      </c>
+      <c r="N29" s="7">
+        <v>41882</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M29" s="7">
-        <v>443</v>
-      </c>
-      <c r="N29" s="7">
-        <v>300239</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="D30" s="7">
-        <v>310992</v>
+        <v>137614</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="7">
+        <v>240</v>
+      </c>
+      <c r="I30" s="7">
+        <v>162624</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="7">
+      <c r="M30" s="7">
         <v>443</v>
       </c>
-      <c r="I30" s="7">
-        <v>296824</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="N30" s="7">
+        <v>300239</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="M30" s="7">
-        <v>915</v>
-      </c>
-      <c r="N30" s="7">
-        <v>607816</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
+        <v>472</v>
+      </c>
+      <c r="D31" s="7">
+        <v>310992</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="7">
+        <v>443</v>
+      </c>
+      <c r="I31" s="7">
+        <v>296824</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" s="7">
+        <v>915</v>
+      </c>
+      <c r="N31" s="7">
+        <v>607816</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="7">
-        <v>145519</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="7">
-        <v>136</v>
-      </c>
-      <c r="I31" s="7">
-        <v>90618</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="M31" s="7">
-        <v>354</v>
-      </c>
-      <c r="N31" s="7">
-        <v>236137</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="D32" s="7">
-        <v>20830</v>
+        <v>145519</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="7">
+        <v>136</v>
+      </c>
+      <c r="I32" s="7">
+        <v>90618</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="7">
-        <v>32</v>
-      </c>
-      <c r="I32" s="7">
-        <v>21052</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>225</v>
       </c>
       <c r="M32" s="7">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="N32" s="7">
-        <v>41882</v>
+        <v>236137</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>226</v>
@@ -3893,13 +3893,13 @@
         <v>614956</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>851</v>
@@ -3908,13 +3908,13 @@
         <v>571118</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1776</v>
@@ -3923,13 +3923,13 @@
         <v>1186075</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8930C235-8B04-4586-AEC0-E2630C8FF56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858CEFD5-903F-4008-AB66-FC3303C33262}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4068,202 +4068,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>40089</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="7">
-        <v>63</v>
-      </c>
-      <c r="I4" s="7">
-        <v>40513</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="7">
-        <v>121</v>
-      </c>
-      <c r="N4" s="7">
-        <v>80603</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>98788</v>
+        <v>3393</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7570</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>13</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10963</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="7">
-        <v>135</v>
-      </c>
-      <c r="I5" s="7">
-        <v>88040</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>279</v>
-      </c>
-      <c r="N5" s="7">
-        <v>186828</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>34689</v>
+        <v>17195</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8391</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>29</v>
+      </c>
+      <c r="N6" s="7">
+        <v>25586</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="7">
-        <v>38</v>
-      </c>
-      <c r="I6" s="7">
-        <v>24600</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6" s="7">
-        <v>87</v>
-      </c>
-      <c r="N6" s="7">
-        <v>59289</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>10161</v>
+        <v>3114</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2455</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5569</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="H7" s="7">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12876</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M7" s="7">
-        <v>35</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23037</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,255 +4272,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>183727</v>
+        <v>23702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>166029</v>
+        <v>18415</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>522</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>349756</v>
+        <v>42117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>24665</v>
+        <v>2892</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3936</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7">
+        <v>6828</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="7">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>36643</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M9" s="7">
-        <v>86</v>
-      </c>
-      <c r="N9" s="7">
-        <v>61308</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>62537</v>
+        <v>24665</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="7">
+        <v>51</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36643</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="7">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7">
+        <v>61308</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="7">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43707</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M10" s="7">
-        <v>149</v>
-      </c>
-      <c r="N10" s="7">
-        <v>106244</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7">
-        <v>19563</v>
+        <v>62537</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="7">
+        <v>60</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43707</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="7">
+        <v>149</v>
+      </c>
+      <c r="N11" s="7">
+        <v>106244</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17977</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M11" s="7">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7">
-        <v>37540</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>2892</v>
+        <v>19563</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="7">
+        <v>26</v>
+      </c>
+      <c r="I12" s="7">
+        <v>17977</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M12" s="7">
+        <v>53</v>
+      </c>
+      <c r="N12" s="7">
+        <v>37540</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3936</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6828</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4535,13 @@
         <v>109658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -4550,13 +4550,13 @@
         <v>102262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>298</v>
@@ -4565,219 +4565,219 @@
         <v>211920</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>37565</v>
+        <v>10161</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H14" s="7">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7">
+        <v>12876</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="7">
+        <v>35</v>
+      </c>
+      <c r="N14" s="7">
+        <v>23037</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="H14" s="7">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7">
-        <v>48287</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M14" s="7">
-        <v>115</v>
-      </c>
-      <c r="N14" s="7">
-        <v>85852</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>82684</v>
+        <v>40089</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" s="7">
+        <v>63</v>
+      </c>
+      <c r="I15" s="7">
+        <v>40513</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" s="7">
+        <v>121</v>
+      </c>
+      <c r="N15" s="7">
+        <v>80603</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H15" s="7">
-        <v>109</v>
-      </c>
-      <c r="I15" s="7">
-        <v>83252</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M15" s="7">
-        <v>224</v>
-      </c>
-      <c r="N15" s="7">
-        <v>165936</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="D16" s="7">
-        <v>51269</v>
+        <v>98788</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H16" s="7">
+        <v>135</v>
+      </c>
+      <c r="I16" s="7">
+        <v>88040</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M16" s="7">
+        <v>279</v>
+      </c>
+      <c r="N16" s="7">
+        <v>186828</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24981</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M16" s="7">
-        <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>76250</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>6653</v>
+        <v>34689</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7">
+        <v>24600</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M17" s="7">
+        <v>87</v>
+      </c>
+      <c r="N17" s="7">
+        <v>59289</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13530</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>20184</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,255 +4786,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7">
-        <v>178171</v>
+        <v>183727</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="I18" s="7">
-        <v>170050</v>
+        <v>166029</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="N18" s="7">
-        <v>348221</v>
+        <v>349756</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>3393</v>
+        <v>5462</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8382</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M19" s="7">
+        <v>21</v>
+      </c>
+      <c r="N19" s="7">
+        <v>13844</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7570</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10963</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7">
-        <v>17195</v>
+        <v>36300</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="7">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7">
+        <v>31817</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M20" s="7">
+        <v>106</v>
+      </c>
+      <c r="N20" s="7">
+        <v>68117</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8391</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="M20" s="7">
-        <v>29</v>
-      </c>
-      <c r="N20" s="7">
-        <v>25586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>3114</v>
+        <v>75964</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" s="7">
+        <v>113</v>
+      </c>
+      <c r="I21" s="7">
+        <v>72192</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M21" s="7">
+        <v>231</v>
+      </c>
+      <c r="N21" s="7">
+        <v>148155</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2455</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5569</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>23835</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" s="7">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7">
+        <v>18281</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M22" s="7">
+        <v>65</v>
+      </c>
+      <c r="N22" s="7">
+        <v>42115</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,198 +5043,198 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="D23" s="7">
-        <v>23702</v>
+        <v>141560</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="I23" s="7">
-        <v>18415</v>
+        <v>130672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>423</v>
       </c>
       <c r="N23" s="7">
-        <v>42117</v>
+        <v>272232</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>36300</v>
+        <v>6653</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17</v>
+      </c>
+      <c r="I24" s="7">
+        <v>13530</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H24" s="7">
-        <v>50</v>
-      </c>
-      <c r="I24" s="7">
-        <v>31817</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>26</v>
+      </c>
+      <c r="N24" s="7">
+        <v>20184</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M24" s="7">
-        <v>106</v>
-      </c>
-      <c r="N24" s="7">
-        <v>68117</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>75964</v>
+        <v>37565</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48287</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H25" s="7">
-        <v>113</v>
-      </c>
-      <c r="I25" s="7">
-        <v>72192</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>115</v>
+      </c>
+      <c r="N25" s="7">
+        <v>85852</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="M25" s="7">
-        <v>231</v>
-      </c>
-      <c r="N25" s="7">
-        <v>148155</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D26" s="7">
-        <v>23835</v>
+        <v>82684</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>109</v>
+      </c>
+      <c r="I26" s="7">
+        <v>83252</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H26" s="7">
-        <v>28</v>
-      </c>
-      <c r="I26" s="7">
-        <v>18281</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>382</v>
       </c>
       <c r="M26" s="7">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="N26" s="7">
-        <v>42115</v>
+        <v>165936</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>383</v>
@@ -5246,13 +5246,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D27" s="7">
-        <v>5462</v>
+        <v>51269</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>385</v>
@@ -5264,10 +5264,10 @@
         <v>387</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I27" s="7">
-        <v>8382</v>
+        <v>24981</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>388</v>
@@ -5279,10 +5279,10 @@
         <v>390</v>
       </c>
       <c r="M27" s="7">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N27" s="7">
-        <v>13844</v>
+        <v>76250</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>391</v>
@@ -5300,49 +5300,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D28" s="7">
-        <v>141560</v>
+        <v>178171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="I28" s="7">
-        <v>130672</v>
+        <v>170050</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="N28" s="7">
-        <v>272232</v>
+        <v>348221</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,10 +5353,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7">
-        <v>142012</v>
+        <v>25169</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>394</v>
@@ -5368,25 +5368,25 @@
         <v>396</v>
       </c>
       <c r="H29" s="7">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="I29" s="7">
-        <v>164829</v>
+        <v>38724</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>398</v>
       </c>
       <c r="M29" s="7">
-        <v>441</v>
+        <v>92</v>
       </c>
       <c r="N29" s="7">
-        <v>306841</v>
+        <v>63893</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>399</v>
@@ -5401,13 +5401,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="D30" s="7">
-        <v>337168</v>
+        <v>142012</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>402</v>
@@ -5419,61 +5419,61 @@
         <v>404</v>
       </c>
       <c r="H30" s="7">
-        <v>427</v>
+        <v>236</v>
       </c>
       <c r="I30" s="7">
-        <v>295580</v>
+        <v>164829</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>405</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>441</v>
+      </c>
+      <c r="N30" s="7">
+        <v>306841</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M30" s="7">
-        <v>912</v>
-      </c>
-      <c r="N30" s="7">
-        <v>632748</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="D31" s="7">
-        <v>132469</v>
+        <v>337168</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="H31" s="7">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="I31" s="7">
-        <v>88293</v>
+        <v>295580</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>413</v>
@@ -5485,10 +5485,10 @@
         <v>415</v>
       </c>
       <c r="M31" s="7">
-        <v>311</v>
+        <v>912</v>
       </c>
       <c r="N31" s="7">
-        <v>220762</v>
+        <v>632748</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>416</v>
@@ -5503,13 +5503,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="D32" s="7">
-        <v>25169</v>
+        <v>132469</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>419</v>
@@ -5518,16 +5518,16 @@
         <v>420</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="7">
+        <v>128</v>
+      </c>
+      <c r="I32" s="7">
+        <v>88293</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="H32" s="7">
-        <v>56</v>
-      </c>
-      <c r="I32" s="7">
-        <v>38724</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>422</v>
@@ -5536,10 +5536,10 @@
         <v>423</v>
       </c>
       <c r="M32" s="7">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="N32" s="7">
-        <v>63893</v>
+        <v>220762</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>424</v>
@@ -5563,13 +5563,13 @@
         <v>636818</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>847</v>
@@ -5578,13 +5578,13 @@
         <v>587427</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1756</v>
@@ -5593,13 +5593,13 @@
         <v>1224245</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5620,7 +5620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C174AC0-E985-4146-A4BB-26AFD9326594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CCB8C8-23F3-444F-9020-D781B6E008E8}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5738,202 +5738,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>48066</v>
+        <v>1670</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1803</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3473</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H4" s="7">
-        <v>72</v>
-      </c>
-      <c r="I4" s="7">
-        <v>45278</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="M4" s="7">
-        <v>144</v>
-      </c>
-      <c r="N4" s="7">
-        <v>93343</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>102318</v>
+        <v>5806</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6133</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="7">
-        <v>130</v>
-      </c>
-      <c r="I5" s="7">
-        <v>80703</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>13</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11939</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="M5" s="7">
-        <v>282</v>
-      </c>
-      <c r="N5" s="7">
-        <v>183020</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>25247</v>
+        <v>12194</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10478</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>25</v>
+      </c>
+      <c r="N6" s="7">
+        <v>22673</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H6" s="7">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7">
-        <v>20350</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="M6" s="7">
-        <v>71</v>
-      </c>
-      <c r="N6" s="7">
-        <v>45597</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1705</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
-        <v>15865</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2735</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="H7" s="7">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7">
-        <v>26500</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M7" s="7">
-        <v>62</v>
-      </c>
-      <c r="N7" s="7">
-        <v>42364</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,255 +5942,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>191495</v>
+        <v>21375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
-        <v>172830</v>
+        <v>19444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>559</v>
+        <v>46</v>
       </c>
       <c r="N8" s="7">
-        <v>364325</v>
+        <v>40820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>28985</v>
+        <v>3583</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5962</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M9" s="7">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7">
+        <v>9544</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7">
-        <v>19358</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="M9" s="7">
-        <v>68</v>
-      </c>
-      <c r="N9" s="7">
-        <v>48343</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>57267</v>
+        <v>28985</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H10" s="7">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19358</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="M10" s="7">
+        <v>68</v>
+      </c>
+      <c r="N10" s="7">
+        <v>48343</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H10" s="7">
-        <v>82</v>
-      </c>
-      <c r="I10" s="7">
-        <v>57767</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="M10" s="7">
-        <v>160</v>
-      </c>
-      <c r="N10" s="7">
-        <v>115034</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7">
-        <v>13988</v>
+        <v>57267</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H11" s="7">
+        <v>82</v>
+      </c>
+      <c r="I11" s="7">
+        <v>57767</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M11" s="7">
+        <v>160</v>
+      </c>
+      <c r="N11" s="7">
+        <v>115034</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7362</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="M11" s="7">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>21351</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>3583</v>
+        <v>13988</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7362</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M12" s="7">
+        <v>29</v>
+      </c>
+      <c r="N12" s="7">
+        <v>21351</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5962</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="M12" s="7">
-        <v>14</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9544</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6205,13 @@
         <v>103823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>131</v>
@@ -6220,13 +6220,13 @@
         <v>90449</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
@@ -6235,219 +6235,219 @@
         <v>194272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>44652</v>
+        <v>15865</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7">
+        <v>26500</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="7">
+        <v>62</v>
+      </c>
+      <c r="N14" s="7">
+        <v>42364</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H14" s="7">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>49214</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="M14" s="7">
-        <v>132</v>
-      </c>
-      <c r="N14" s="7">
-        <v>93867</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7">
-        <v>89124</v>
+        <v>48066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>173</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>96766</v>
+        <v>45278</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="N15" s="7">
-        <v>185890</v>
+        <v>93343</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>511</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>26518</v>
+        <v>102318</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H16" s="7">
+        <v>130</v>
+      </c>
+      <c r="I16" s="7">
+        <v>80703</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M16" s="7">
+        <v>282</v>
+      </c>
+      <c r="N16" s="7">
+        <v>183020</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>17155</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="M16" s="7">
-        <v>59</v>
-      </c>
-      <c r="N16" s="7">
-        <v>43672</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>14764</v>
+        <v>25247</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H17" s="7">
+        <v>35</v>
+      </c>
+      <c r="I17" s="7">
+        <v>20350</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M17" s="7">
+        <v>71</v>
+      </c>
+      <c r="N17" s="7">
+        <v>45597</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10749</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>25513</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,255 +6456,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D18" s="7">
-        <v>175058</v>
+        <v>191495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>173884</v>
+        <v>172830</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="N18" s="7">
-        <v>348942</v>
+        <v>364325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>5806</v>
+        <v>6101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>6133</v>
+        <v>7583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>11939</v>
+        <v>13684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D20" s="7">
-        <v>12194</v>
+        <v>36975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="I20" s="7">
-        <v>10478</v>
+        <v>39033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>532</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="N20" s="7">
-        <v>22673</v>
+        <v>76008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7">
-        <v>1705</v>
+        <v>72925</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H21" s="7">
+        <v>107</v>
+      </c>
+      <c r="I21" s="7">
+        <v>64511</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M21" s="7">
+        <v>216</v>
+      </c>
+      <c r="N21" s="7">
+        <v>137436</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1030</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2735</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>1670</v>
+        <v>16838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H22" s="7">
+        <v>26</v>
+      </c>
+      <c r="I22" s="7">
+        <v>14259</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M22" s="7">
+        <v>54</v>
+      </c>
+      <c r="N22" s="7">
+        <v>31097</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1803</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="M22" s="7">
-        <v>4</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3473</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,252 +6713,252 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="D23" s="7">
-        <v>21375</v>
+        <v>132839</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="I23" s="7">
-        <v>19444</v>
+        <v>125387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>407</v>
       </c>
       <c r="N23" s="7">
-        <v>40820</v>
+        <v>258226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>36975</v>
+        <v>14764</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10749</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H24" s="7">
-        <v>63</v>
-      </c>
-      <c r="I24" s="7">
-        <v>39033</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>35</v>
+      </c>
+      <c r="N24" s="7">
+        <v>25513</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="M24" s="7">
-        <v>117</v>
-      </c>
-      <c r="N24" s="7">
-        <v>76008</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7">
-        <v>72925</v>
+        <v>44652</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>68</v>
+      </c>
+      <c r="I25" s="7">
+        <v>49214</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="H25" s="7">
-        <v>107</v>
-      </c>
-      <c r="I25" s="7">
-        <v>64511</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>132</v>
+      </c>
+      <c r="N25" s="7">
+        <v>93867</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="M25" s="7">
-        <v>216</v>
-      </c>
-      <c r="N25" s="7">
-        <v>137436</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D26" s="7">
-        <v>16838</v>
+        <v>89124</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="7">
+        <v>131</v>
+      </c>
+      <c r="I26" s="7">
+        <v>96766</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H26" s="7">
-        <v>26</v>
-      </c>
-      <c r="I26" s="7">
-        <v>14259</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>257</v>
+      </c>
+      <c r="N26" s="7">
+        <v>185890</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="M26" s="7">
-        <v>54</v>
-      </c>
-      <c r="N26" s="7">
-        <v>31097</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7">
-        <v>6101</v>
+        <v>26518</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>23</v>
+      </c>
+      <c r="I27" s="7">
+        <v>17155</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="H27" s="7">
-        <v>12</v>
-      </c>
-      <c r="I27" s="7">
-        <v>7583</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>59</v>
+      </c>
+      <c r="N27" s="7">
+        <v>43672</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="M27" s="7">
-        <v>20</v>
-      </c>
-      <c r="N27" s="7">
-        <v>13684</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>586</v>
@@ -6970,49 +6970,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="D28" s="7">
-        <v>132839</v>
+        <v>175058</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="I28" s="7">
-        <v>125387</v>
+        <v>173884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="N28" s="7">
-        <v>258226</v>
+        <v>348942</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,10 +7023,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>164485</v>
+        <v>41982</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>587</v>
@@ -7038,187 +7038,187 @@
         <v>589</v>
       </c>
       <c r="H29" s="7">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="I29" s="7">
-        <v>159016</v>
+        <v>52596</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M29" s="7">
+        <v>135</v>
+      </c>
+      <c r="N29" s="7">
+        <v>94579</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="M29" s="7">
-        <v>474</v>
-      </c>
-      <c r="N29" s="7">
-        <v>323501</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7">
-        <v>479</v>
+        <v>235</v>
       </c>
       <c r="D30" s="7">
-        <v>333828</v>
+        <v>164485</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H30" s="7">
+        <v>239</v>
+      </c>
+      <c r="I30" s="7">
+        <v>159016</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="H30" s="7">
-        <v>461</v>
-      </c>
-      <c r="I30" s="7">
-        <v>310225</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>474</v>
+      </c>
+      <c r="N30" s="7">
+        <v>323501</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="M30" s="7">
-        <v>940</v>
-      </c>
-      <c r="N30" s="7">
-        <v>644053</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="D31" s="7">
-        <v>84296</v>
+        <v>333828</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H31" s="7">
+        <v>461</v>
+      </c>
+      <c r="I31" s="7">
+        <v>310225</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>940</v>
+      </c>
+      <c r="N31" s="7">
+        <v>644053</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="H31" s="7">
-        <v>96</v>
-      </c>
-      <c r="I31" s="7">
-        <v>60156</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="M31" s="7">
-        <v>217</v>
-      </c>
-      <c r="N31" s="7">
-        <v>144452</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7">
-        <v>41982</v>
+        <v>84296</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H32" s="7">
+        <v>96</v>
+      </c>
+      <c r="I32" s="7">
+        <v>60156</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="H32" s="7">
-        <v>78</v>
-      </c>
-      <c r="I32" s="7">
-        <v>52596</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>217</v>
+      </c>
+      <c r="N32" s="7">
+        <v>144452</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="M32" s="7">
-        <v>135</v>
-      </c>
-      <c r="N32" s="7">
-        <v>94579</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7233,13 @@
         <v>624591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>874</v>
@@ -7248,13 +7248,13 @@
         <v>581994</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1766</v>
@@ -7263,13 +7263,13 @@
         <v>1206584</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749B8EBB-6B44-49A6-AFD3-D0D4C3F50183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D03A0AF-7C37-4A05-89F3-91C7C8B51052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC230F00-29DD-4136-8D53-D4A218BA4F17}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEAFF9DE-CFCD-40BD-B443-B52AC6D8E864}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="617">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
@@ -70,6 +70,96 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>3 ó más vasos/tazas</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>2 vasos/tazas</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>1 vaso/taza</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
     <t>Menos de 1 vaso/taza</t>
   </si>
   <si>
@@ -91,1804 +181,1714 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1 vaso/taza</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>2 vasos/tazas</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>3 ó más vasos/tazas</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
 </sst>
 </file>
@@ -1899,7 +1899,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1995,39 +1995,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2079,7 +2079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2190,13 +2190,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2205,6 +2198,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2269,19 +2269,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19CE4E-968E-4793-9ED4-D480FB5A4824}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CDD28-355C-4EF0-B894-FAA7131C3E81}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2398,10 +2418,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6280</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2413,184 +2433,184 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1597</v>
+        <v>2367</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
       <c r="N4" s="7">
-        <v>1597</v>
+        <v>8647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>4867</v>
+        <v>11101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>6534</v>
+        <v>10584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>11401</v>
+        <v>21684</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4867</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>6534</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
-        <v>11101</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
-        <v>10584</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>28</v>
-      </c>
       <c r="N6" s="7">
-        <v>21684</v>
+        <v>11401</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6280</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1597</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2367</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>8647</v>
+        <v>1597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2655,10 +2675,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>5589</v>
+        <v>21211</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -2670,10 +2690,10 @@
         <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>4245</v>
+        <v>18441</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -2685,10 +2705,10 @@
         <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>9834</v>
+        <v>39653</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -2703,13 +2723,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7">
-        <v>22347</v>
+        <v>58579</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -2721,10 +2741,10 @@
         <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>28771</v>
+        <v>46839</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -2736,10 +2756,10 @@
         <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>51118</v>
+        <v>105418</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -2754,13 +2774,13 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>58579</v>
+        <v>22347</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -2772,10 +2792,10 @@
         <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>46839</v>
+        <v>28771</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -2787,10 +2807,10 @@
         <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>105418</v>
+        <v>51118</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -2805,13 +2825,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>21211</v>
+        <v>5589</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -2823,10 +2843,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>18441</v>
+        <v>4245</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -2838,10 +2858,10 @@
         <v>82</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>39653</v>
+        <v>9834</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -2912,10 +2932,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>5155</v>
+        <v>47522</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -2927,10 +2947,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>5589</v>
+        <v>21732</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -2942,10 +2962,10 @@
         <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>10744</v>
+        <v>69255</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -2960,13 +2980,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D15" s="7">
-        <v>40839</v>
+        <v>89205</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>96</v>
@@ -2978,10 +2998,10 @@
         <v>98</v>
       </c>
       <c r="H15" s="7">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="I15" s="7">
-        <v>47759</v>
+        <v>82427</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>99</v>
@@ -2993,10 +3013,10 @@
         <v>101</v>
       </c>
       <c r="M15" s="7">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="N15" s="7">
-        <v>88598</v>
+        <v>171632</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
@@ -3011,13 +3031,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>89205</v>
+        <v>40839</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -3029,10 +3049,10 @@
         <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>82427</v>
+        <v>47759</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -3044,10 +3064,10 @@
         <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>171632</v>
+        <v>88598</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -3062,13 +3082,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>47522</v>
+        <v>5155</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -3080,10 +3100,10 @@
         <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>21732</v>
+        <v>5589</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -3095,10 +3115,10 @@
         <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>69255</v>
+        <v>10744</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -3169,10 +3189,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>3352</v>
+        <v>33830</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -3184,25 +3204,25 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>3013</v>
+        <v>20268</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="N19" s="7">
-        <v>6365</v>
+        <v>54098</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
@@ -3217,13 +3237,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
-        <v>18100</v>
+        <v>69577</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -3235,136 +3255,136 @@
         <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>25715</v>
+        <v>65507</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>217</v>
+      </c>
+      <c r="N20" s="7">
+        <v>135084</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="7">
-        <v>69</v>
-      </c>
-      <c r="N20" s="7">
-        <v>43814</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>69577</v>
+        <v>18100</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25715</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="7">
-        <v>109</v>
-      </c>
-      <c r="I21" s="7">
-        <v>65507</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>69</v>
+      </c>
+      <c r="N21" s="7">
+        <v>43814</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="7">
-        <v>217</v>
-      </c>
-      <c r="N21" s="7">
-        <v>135084</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>33830</v>
+        <v>3352</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3013</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>34</v>
-      </c>
-      <c r="I22" s="7">
-        <v>20268</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6365</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>87</v>
-      </c>
-      <c r="N22" s="7">
-        <v>54098</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,208 +3440,208 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>6735</v>
+        <v>36675</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>36</v>
+      </c>
+      <c r="I24" s="7">
+        <v>27810</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6608</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>89</v>
+      </c>
+      <c r="N24" s="7">
+        <v>64485</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="7">
-        <v>19</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13343</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D25" s="7">
-        <v>51462</v>
+        <v>82530</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>119</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91468</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>71</v>
-      </c>
-      <c r="I25" s="7">
-        <v>53847</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>242</v>
+      </c>
+      <c r="N25" s="7">
+        <v>173999</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="7">
-        <v>146</v>
-      </c>
-      <c r="N25" s="7">
-        <v>105308</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D26" s="7">
-        <v>82530</v>
+        <v>51462</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>71</v>
+      </c>
+      <c r="I26" s="7">
+        <v>53847</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="7">
-        <v>119</v>
-      </c>
-      <c r="I26" s="7">
-        <v>91468</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>146</v>
+      </c>
+      <c r="N26" s="7">
+        <v>105308</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="7">
-        <v>242</v>
-      </c>
-      <c r="N26" s="7">
-        <v>173999</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
-        <v>36675</v>
+        <v>6735</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6608</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="7">
-        <v>36</v>
-      </c>
-      <c r="I27" s="7">
-        <v>27810</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>19</v>
+      </c>
+      <c r="N27" s="7">
+        <v>13343</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M27" s="7">
-        <v>89</v>
-      </c>
-      <c r="N27" s="7">
-        <v>64485</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,127 +3703,127 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="D29" s="7">
-        <v>20830</v>
+        <v>145519</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="H29" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I29" s="7">
-        <v>21052</v>
+        <v>90618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="N29" s="7">
-        <v>41882</v>
+        <v>236137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
+        <v>472</v>
+      </c>
+      <c r="D30" s="7">
+        <v>310992</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="7">
-        <v>137614</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="I30" s="7">
-        <v>162624</v>
+        <v>296824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
-        <v>443</v>
+        <v>915</v>
       </c>
       <c r="N30" s="7">
-        <v>300239</v>
+        <v>607816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="D31" s="7">
-        <v>310992</v>
+        <v>137614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="H31" s="7">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="I31" s="7">
-        <v>296824</v>
+        <v>162624</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>214</v>
@@ -3815,10 +3835,10 @@
         <v>216</v>
       </c>
       <c r="M31" s="7">
-        <v>915</v>
+        <v>443</v>
       </c>
       <c r="N31" s="7">
-        <v>607816</v>
+        <v>300239</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>217</v>
@@ -3833,13 +3853,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7">
-        <v>145519</v>
+        <v>20830</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>220</v>
@@ -3851,34 +3871,34 @@
         <v>222</v>
       </c>
       <c r="H32" s="7">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="I32" s="7">
-        <v>90618</v>
+        <v>21052</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>64</v>
+      </c>
+      <c r="N32" s="7">
+        <v>41882</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M32" s="7">
-        <v>354</v>
-      </c>
-      <c r="N32" s="7">
-        <v>236137</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,6 +3950,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3950,8 +3975,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858CEFD5-903F-4008-AB66-FC3303C33262}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042069E3-2FA4-4496-BE78-85A2076E9971}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4068,199 +4093,199 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3114</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2455</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5569</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>3393</v>
+        <v>17195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>7570</v>
+        <v>8391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>10963</v>
+        <v>25586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>17195</v>
+        <v>3393</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>8391</v>
+        <v>7570</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>25586</v>
+        <v>10963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3114</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2455</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>5569</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>257</v>
@@ -4325,10 +4350,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7">
-        <v>2892</v>
+        <v>19563</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>258</v>
@@ -4340,151 +4365,151 @@
         <v>260</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>3936</v>
+        <v>17977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7">
-        <v>6828</v>
+        <v>37540</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7">
-        <v>24665</v>
+        <v>62537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>36643</v>
+        <v>43707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>61308</v>
+        <v>106244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>62537</v>
+        <v>24665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>43707</v>
+        <v>36643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7">
-        <v>106244</v>
+        <v>61308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>19563</v>
+        <v>2892</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>285</v>
@@ -4493,10 +4518,10 @@
         <v>286</v>
       </c>
       <c r="H12" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>17977</v>
+        <v>3936</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>287</v>
@@ -4508,10 +4533,10 @@
         <v>289</v>
       </c>
       <c r="M12" s="7">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>37540</v>
+        <v>6828</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>290</v>
@@ -4582,10 +4607,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>10161</v>
+        <v>34689</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>293</v>
@@ -4597,10 +4622,10 @@
         <v>295</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>12876</v>
+        <v>24600</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>296</v>
@@ -4612,10 +4637,10 @@
         <v>298</v>
       </c>
       <c r="M14" s="7">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>23037</v>
+        <v>59289</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>299</v>
@@ -4630,100 +4655,100 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>40089</v>
+        <v>98788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H15" s="7">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="I15" s="7">
-        <v>40513</v>
+        <v>88040</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="N15" s="7">
-        <v>80603</v>
+        <v>186828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>98788</v>
+        <v>40089</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>88040</v>
+        <v>40513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="N16" s="7">
-        <v>186828</v>
+        <v>80603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>318</v>
@@ -4732,13 +4757,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>34689</v>
+        <v>10161</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>319</v>
@@ -4747,37 +4772,37 @@
         <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>24600</v>
+        <v>12876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>59289</v>
+        <v>23037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,43 +4864,43 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>5462</v>
+        <v>23835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>8382</v>
+        <v>18281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M19" s="7">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>13844</v>
+        <v>42115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>334</v>
@@ -4887,13 +4912,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D20" s="7">
-        <v>36300</v>
+        <v>75964</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>336</v>
@@ -4905,10 +4930,10 @@
         <v>338</v>
       </c>
       <c r="H20" s="7">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="I20" s="7">
-        <v>31817</v>
+        <v>72192</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>339</v>
@@ -4920,10 +4945,10 @@
         <v>341</v>
       </c>
       <c r="M20" s="7">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="N20" s="7">
-        <v>68117</v>
+        <v>148155</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>342</v>
@@ -4938,103 +4963,103 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7">
-        <v>75964</v>
+        <v>36300</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>72192</v>
+        <v>31817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="N21" s="7">
-        <v>148155</v>
+        <v>68117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>23835</v>
+        <v>5462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>18281</v>
+        <v>8382</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>42115</v>
+        <v>13844</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,100 +5115,100 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D24" s="7">
-        <v>6653</v>
+        <v>51269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I24" s="7">
-        <v>13530</v>
+        <v>24981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N24" s="7">
-        <v>20184</v>
+        <v>76250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D25" s="7">
-        <v>37565</v>
+        <v>82684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I25" s="7">
-        <v>48287</v>
+        <v>83252</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="N25" s="7">
-        <v>85852</v>
+        <v>165936</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>375</v>
@@ -5195,13 +5220,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>82684</v>
+        <v>37565</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>377</v>
@@ -5213,10 +5238,10 @@
         <v>379</v>
       </c>
       <c r="H26" s="7">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="I26" s="7">
-        <v>83252</v>
+        <v>48287</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>380</v>
@@ -5228,70 +5253,70 @@
         <v>382</v>
       </c>
       <c r="M26" s="7">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>165936</v>
+        <v>85852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D27" s="7">
-        <v>51269</v>
+        <v>6653</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H27" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7">
-        <v>24981</v>
+        <v>13530</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M27" s="7">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="N27" s="7">
-        <v>76250</v>
+        <v>20184</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,28 +5378,28 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="D29" s="7">
-        <v>25169</v>
+        <v>132469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="7">
+        <v>128</v>
+      </c>
+      <c r="I29" s="7">
+        <v>88293</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H29" s="7">
-        <v>56</v>
-      </c>
-      <c r="I29" s="7">
-        <v>38724</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>397</v>
@@ -5383,10 +5408,10 @@
         <v>398</v>
       </c>
       <c r="M29" s="7">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="N29" s="7">
-        <v>63893</v>
+        <v>220762</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>399</v>
@@ -5395,49 +5420,49 @@
         <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="D30" s="7">
-        <v>142012</v>
+        <v>337168</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>427</v>
+      </c>
+      <c r="I30" s="7">
+        <v>295580</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H30" s="7">
-        <v>236</v>
-      </c>
-      <c r="I30" s="7">
-        <v>164829</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>406</v>
       </c>
       <c r="M30" s="7">
-        <v>441</v>
+        <v>912</v>
       </c>
       <c r="N30" s="7">
-        <v>306841</v>
+        <v>632748</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>407</v>
@@ -5452,103 +5477,103 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="D31" s="7">
-        <v>337168</v>
+        <v>142012</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>236</v>
+      </c>
+      <c r="I31" s="7">
+        <v>164829</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H31" s="7">
-        <v>427</v>
-      </c>
-      <c r="I31" s="7">
-        <v>295580</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>441</v>
+      </c>
+      <c r="N31" s="7">
+        <v>306841</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="M31" s="7">
-        <v>912</v>
-      </c>
-      <c r="N31" s="7">
-        <v>632748</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="D32" s="7">
-        <v>132469</v>
+        <v>25169</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="H32" s="7">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I32" s="7">
-        <v>88293</v>
+        <v>38724</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>92</v>
+      </c>
+      <c r="N32" s="7">
+        <v>63893</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="M32" s="7">
-        <v>311</v>
-      </c>
-      <c r="N32" s="7">
-        <v>220762</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,6 +5625,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5620,8 +5650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CCB8C8-23F3-444F-9020-D781B6E008E8}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A183A39F-36CD-4FCF-ADE5-F6BB3A4CB19F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5637,7 +5667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5738,97 +5768,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1670</v>
+        <v>1705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>428</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1803</v>
+        <v>1030</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3473</v>
+        <v>2735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>5806</v>
+        <v>12194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6133</v>
+        <v>10478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>11939</v>
+        <v>22673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>441</v>
@@ -5837,13 +5867,13 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>12194</v>
+        <v>5806</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>442</v>
@@ -5855,85 +5885,85 @@
         <v>444</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>10478</v>
+        <v>6133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>446</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M6" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>22673</v>
+        <v>11939</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1705</v>
+        <v>1670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1030</v>
+        <v>1803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2735</v>
+        <v>3473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,202 +6025,202 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>3583</v>
+        <v>13988</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>5962</v>
+        <v>7362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M9" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>9544</v>
+        <v>21351</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>28985</v>
+        <v>57267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>19358</v>
+        <v>57767</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>48343</v>
+        <v>115034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>57267</v>
+        <v>28985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>57767</v>
+        <v>19358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>115034</v>
+        <v>48343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>13988</v>
+        <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>7362</v>
+        <v>5962</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>325</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M12" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>21351</v>
+        <v>9544</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,202 +6282,202 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>15865</v>
+        <v>25247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>26500</v>
+        <v>20350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>496</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>42364</v>
+        <v>45597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D15" s="7">
-        <v>48066</v>
+        <v>102318</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>211</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>45278</v>
+        <v>80703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M15" s="7">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="N15" s="7">
-        <v>93343</v>
+        <v>183020</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>268</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>102318</v>
+        <v>48066</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H16" s="7">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>80703</v>
+        <v>45278</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="N16" s="7">
-        <v>183020</v>
+        <v>93343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>511</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>25247</v>
+        <v>15865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>20350</v>
+        <v>26500</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N17" s="7">
-        <v>45597</v>
+        <v>42364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,202 +6539,202 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>6101</v>
+        <v>16838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H19" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7">
-        <v>7583</v>
+        <v>14259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M19" s="7">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>13684</v>
+        <v>31097</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7">
-        <v>36975</v>
+        <v>72925</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I20" s="7">
-        <v>39033</v>
+        <v>64511</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="N20" s="7">
-        <v>76008</v>
+        <v>137436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7">
-        <v>72925</v>
+        <v>36975</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I21" s="7">
-        <v>64511</v>
+        <v>39033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M21" s="7">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="N21" s="7">
-        <v>137436</v>
+        <v>76008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>16838</v>
+        <v>6101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H22" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>14259</v>
+        <v>7583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>552</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>553</v>
       </c>
       <c r="M22" s="7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>31097</v>
+        <v>13684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,49 +6790,49 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7">
-        <v>14764</v>
+        <v>26518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>10749</v>
+        <v>17155</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>556</v>
+        <v>91</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M24" s="7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="N24" s="7">
-        <v>25513</v>
+        <v>43672</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>559</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>560</v>
@@ -6814,13 +6844,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>44652</v>
+        <v>89124</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>562</v>
@@ -6829,64 +6859,64 @@
         <v>563</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="7">
+        <v>131</v>
+      </c>
+      <c r="I25" s="7">
+        <v>96766</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="H25" s="7">
-        <v>68</v>
-      </c>
-      <c r="I25" s="7">
-        <v>49214</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>257</v>
+      </c>
+      <c r="N25" s="7">
+        <v>185890</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="M25" s="7">
-        <v>132</v>
-      </c>
-      <c r="N25" s="7">
-        <v>93867</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
-        <v>89124</v>
+        <v>44652</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="H26" s="7">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="I26" s="7">
-        <v>96766</v>
+        <v>49214</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>573</v>
@@ -6898,10 +6928,10 @@
         <v>575</v>
       </c>
       <c r="M26" s="7">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="N26" s="7">
-        <v>185890</v>
+        <v>93867</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>576</v>
@@ -6916,13 +6946,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D27" s="7">
-        <v>26518</v>
+        <v>14764</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>579</v>
@@ -6931,37 +6961,37 @@
         <v>580</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="7">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7">
+        <v>10749</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="H27" s="7">
-        <v>23</v>
-      </c>
-      <c r="I27" s="7">
-        <v>17155</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M27" s="7">
+        <v>35</v>
+      </c>
+      <c r="N27" s="7">
+        <v>25513</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="M27" s="7">
-        <v>59</v>
-      </c>
-      <c r="N27" s="7">
-        <v>43672</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,148 +7053,148 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D29" s="7">
-        <v>41982</v>
+        <v>84296</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="7">
+        <v>96</v>
+      </c>
+      <c r="I29" s="7">
+        <v>60156</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="H29" s="7">
-        <v>78</v>
-      </c>
-      <c r="I29" s="7">
-        <v>52596</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="M29" s="7">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="N29" s="7">
-        <v>94579</v>
+        <v>144452</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>235</v>
+        <v>479</v>
       </c>
       <c r="D30" s="7">
-        <v>164485</v>
+        <v>333828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H30" s="7">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="I30" s="7">
-        <v>159016</v>
+        <v>310225</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M30" s="7">
-        <v>474</v>
+        <v>940</v>
       </c>
       <c r="N30" s="7">
-        <v>323501</v>
+        <v>644053</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>599</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>479</v>
+        <v>235</v>
       </c>
       <c r="D31" s="7">
-        <v>333828</v>
+        <v>164485</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H31" s="7">
-        <v>461</v>
+        <v>239</v>
       </c>
       <c r="I31" s="7">
-        <v>310225</v>
+        <v>159016</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>603</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M31" s="7">
-        <v>940</v>
+        <v>474</v>
       </c>
       <c r="N31" s="7">
-        <v>644053</v>
+        <v>323501</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>607</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>608</v>
@@ -7173,13 +7203,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="D32" s="7">
-        <v>84296</v>
+        <v>41982</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>609</v>
@@ -7188,31 +7218,31 @@
         <v>610</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H32" s="7">
+        <v>78</v>
+      </c>
+      <c r="I32" s="7">
+        <v>52596</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="H32" s="7">
-        <v>96</v>
-      </c>
-      <c r="I32" s="7">
-        <v>60156</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>135</v>
+      </c>
+      <c r="N32" s="7">
+        <v>94579</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="M32" s="7">
-        <v>217</v>
-      </c>
-      <c r="N32" s="7">
-        <v>144452</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>615</v>
@@ -7270,6 +7300,11 @@
       </c>
       <c r="Q33" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D03A0AF-7C37-4A05-89F3-91C7C8B51052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98B2FE6-035D-4013-A91B-8731649D7951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEAFF9DE-CFCD-40BD-B443-B52AC6D8E864}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F176E6C7-A987-4B0F-9CCF-F547DDD201AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="610">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>3 ó más vasos/tazas</t>
@@ -76,1819 +76,1798 @@
     <t>28,23%</t>
   </si>
   <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>2 vasos/tazas</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>1 vaso/taza</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vaso/taza</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>2 vasos/tazas</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>1 vaso/taza</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vaso/taza</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2016 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>24,54%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8CDD28-355C-4EF0-B894-FAA7131C3E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD09026-3FAF-4237-9782-C04BB6A04F66}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3210,13 +3189,13 @@
         <v>20268</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -3225,7 +3204,7 @@
         <v>54098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>130</v>
@@ -3264,10 +3243,10 @@
         <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -3276,13 +3255,13 @@
         <v>135084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3276,13 @@
         <v>18100</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -3312,13 +3291,13 @@
         <v>25715</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -3327,13 +3306,13 @@
         <v>43814</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3327,13 @@
         <v>3352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3363,13 +3342,13 @@
         <v>3013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -3378,13 +3357,13 @@
         <v>6365</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,7 +3419,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3452,13 +3431,13 @@
         <v>36675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -3467,13 +3446,13 @@
         <v>27810</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>89</v>
@@ -3482,13 +3461,13 @@
         <v>64485</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3482,13 @@
         <v>82530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -3518,13 +3497,13 @@
         <v>91468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>242</v>
@@ -3533,13 +3512,13 @@
         <v>173999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3533,13 @@
         <v>51462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -3569,13 +3548,13 @@
         <v>53847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -3584,13 +3563,13 @@
         <v>105308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3584,13 @@
         <v>6735</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -3620,13 +3599,13 @@
         <v>6608</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -3635,13 +3614,13 @@
         <v>13343</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3688,13 @@
         <v>145519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>136</v>
@@ -3724,13 +3703,13 @@
         <v>90618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>354</v>
@@ -3739,13 +3718,13 @@
         <v>236137</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3739,13 @@
         <v>310992</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>443</v>
@@ -3775,13 +3754,13 @@
         <v>296824</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>915</v>
@@ -3790,13 +3769,13 @@
         <v>607816</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3790,13 @@
         <v>137614</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>240</v>
@@ -3826,13 +3805,13 @@
         <v>162624</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>443</v>
@@ -3841,13 +3820,13 @@
         <v>300239</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3841,13 @@
         <v>20830</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -3880,10 +3859,10 @@
         <v>46</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>64</v>
@@ -3892,13 +3871,13 @@
         <v>41882</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3933,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3975,7 +3954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042069E3-2FA4-4496-BE78-85A2076E9971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D998B14-C33F-48F6-B64F-80A27D68E991}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,7 +3971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4099,13 +4078,13 @@
         <v>3114</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4114,13 +4093,13 @@
         <v>2455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4129,13 +4108,13 @@
         <v>5569</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4129,13 @@
         <v>17195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4165,13 +4144,13 @@
         <v>8391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -4180,13 +4159,13 @@
         <v>25586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4180,13 @@
         <v>3393</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4216,13 +4195,13 @@
         <v>7570</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -4231,13 +4210,13 @@
         <v>10963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4273,7 +4252,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4288,7 +4267,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4335,13 @@
         <v>19563</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4371,13 +4350,13 @@
         <v>17977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -4386,13 +4365,13 @@
         <v>37540</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4386,13 @@
         <v>62537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -4422,13 +4401,13 @@
         <v>43707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>149</v>
@@ -4437,13 +4416,13 @@
         <v>106244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4437,13 @@
         <v>24665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -4473,13 +4452,13 @@
         <v>36643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -4488,13 +4467,13 @@
         <v>61308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4488,13 @@
         <v>2892</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4524,13 +4503,13 @@
         <v>3936</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -4539,13 +4518,13 @@
         <v>6828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4592,13 @@
         <v>34689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4628,13 +4607,13 @@
         <v>24600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -4643,13 +4622,13 @@
         <v>59289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4643,13 @@
         <v>98788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H15" s="7">
         <v>135</v>
@@ -4679,13 +4658,13 @@
         <v>88040</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M15" s="7">
         <v>279</v>
@@ -4694,13 +4673,13 @@
         <v>186828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4694,13 @@
         <v>40089</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -4730,13 +4709,13 @@
         <v>40513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -4745,13 +4724,13 @@
         <v>80603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4745,13 @@
         <v>10161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4781,13 +4760,13 @@
         <v>12876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -4796,13 +4775,13 @@
         <v>23037</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4849,13 @@
         <v>23835</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4885,13 +4864,13 @@
         <v>18281</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4900,13 +4879,13 @@
         <v>42115</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4900,13 @@
         <v>75964</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -4936,13 +4915,13 @@
         <v>72192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -4951,13 +4930,13 @@
         <v>148155</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4951,13 @@
         <v>36300</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -4987,13 +4966,13 @@
         <v>31817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>106</v>
@@ -5002,13 +4981,13 @@
         <v>68117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5002,13 @@
         <v>5462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5038,13 +5017,13 @@
         <v>8382</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5053,13 +5032,13 @@
         <v>13844</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5094,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5127,13 +5106,13 @@
         <v>51269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5142,13 +5121,13 @@
         <v>24981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M24" s="7">
         <v>100</v>
@@ -5157,13 +5136,13 @@
         <v>76250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5157,13 @@
         <v>82684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -5193,13 +5172,13 @@
         <v>83252</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>224</v>
@@ -5211,10 +5190,10 @@
         <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5208,13 @@
         <v>37565</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -5244,13 +5223,13 @@
         <v>48287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -5259,13 +5238,13 @@
         <v>85852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5259,13 @@
         <v>6653</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -5295,13 +5274,13 @@
         <v>13530</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -5310,13 +5289,13 @@
         <v>20184</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5363,13 @@
         <v>132469</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5399,13 +5378,13 @@
         <v>88293</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>311</v>
@@ -5414,13 +5393,13 @@
         <v>220762</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5414,13 @@
         <v>337168</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H30" s="7">
         <v>427</v>
@@ -5450,13 +5429,13 @@
         <v>295580</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M30" s="7">
         <v>912</v>
@@ -5465,13 +5444,13 @@
         <v>632748</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5465,13 @@
         <v>142012</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H31" s="7">
         <v>236</v>
@@ -5501,13 +5480,13 @@
         <v>164829</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M31" s="7">
         <v>441</v>
@@ -5516,13 +5495,13 @@
         <v>306841</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5516,13 @@
         <v>25169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -5552,13 +5531,13 @@
         <v>38724</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M32" s="7">
         <v>92</v>
@@ -5567,13 +5546,13 @@
         <v>63893</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,7 +5608,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5650,7 +5629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A183A39F-36CD-4FCF-ADE5-F6BB3A4CB19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A6364-3E14-4C20-9E88-2609187CE7E7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5667,7 +5646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5774,13 +5753,13 @@
         <v>1705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5789,13 +5768,13 @@
         <v>1030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5804,13 +5783,13 @@
         <v>2735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5804,13 @@
         <v>12194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -5840,13 +5819,13 @@
         <v>10478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -5855,13 +5834,13 @@
         <v>22673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>254</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5855,13 @@
         <v>5806</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5891,13 +5870,13 @@
         <v>6133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -5906,13 +5885,13 @@
         <v>11939</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5906,13 @@
         <v>1670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5942,13 +5921,13 @@
         <v>1803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5957,13 +5936,13 @@
         <v>3473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>456</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6010,13 @@
         <v>13988</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -6046,10 +6025,10 @@
         <v>7362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>463</v>
@@ -6163,13 +6142,13 @@
         <v>48343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6163,7 @@
         <v>3583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>484</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>485</v>
@@ -6199,7 +6178,7 @@
         <v>5962</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>487</v>
@@ -6217,10 +6196,10 @@
         <v>489</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6267,13 @@
         <v>25247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>493</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -6309,7 +6288,7 @@
         <v>495</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>496</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -6318,13 +6297,13 @@
         <v>45597</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6318,7 @@
         <v>102318</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>211</v>
+        <v>499</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>500</v>
@@ -6360,7 +6339,7 @@
         <v>503</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>504</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>282</v>
@@ -6369,13 +6348,13 @@
         <v>183020</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6369,13 @@
         <v>48066</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -6405,13 +6384,13 @@
         <v>45278</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -6420,13 +6399,13 @@
         <v>93343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6420,13 @@
         <v>15865</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -6456,13 +6435,13 @@
         <v>26500</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -6471,13 +6450,13 @@
         <v>42364</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6524,13 @@
         <v>16838</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>526</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -6560,13 +6539,13 @@
         <v>14259</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -6575,13 +6554,13 @@
         <v>31097</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6575,13 @@
         <v>72925</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H20" s="7">
         <v>107</v>
@@ -6611,13 +6590,13 @@
         <v>64511</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -6626,10 +6605,10 @@
         <v>137436</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>538</v>
@@ -6647,13 +6626,13 @@
         <v>36975</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -6662,13 +6641,13 @@
         <v>39033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -6677,13 +6656,13 @@
         <v>76008</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>548</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6677,13 @@
         <v>6101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6713,13 +6692,13 @@
         <v>7583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>552</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -6728,13 +6707,13 @@
         <v>13684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>554</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6769,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6802,13 +6781,13 @@
         <v>26518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6817,13 +6796,13 @@
         <v>17155</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>91</v>
+        <v>555</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
         <v>59</v>
@@ -6832,13 +6811,13 @@
         <v>43672</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6832,13 @@
         <v>89124</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>562</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>131</v>
@@ -6868,13 +6847,13 @@
         <v>96766</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>565</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>257</v>
@@ -6883,13 +6862,13 @@
         <v>185890</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6883,13 @@
         <v>44652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>571</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H26" s="7">
         <v>68</v>
@@ -6919,13 +6898,13 @@
         <v>49214</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>574</v>
+        <v>365</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>132</v>
@@ -6934,13 +6913,13 @@
         <v>93867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6934,13 @@
         <v>14764</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>580</v>
+        <v>295</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>329</v>
+        <v>572</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -6970,13 +6949,13 @@
         <v>10749</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>582</v>
+        <v>117</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>365</v>
+        <v>574</v>
       </c>
       <c r="M27" s="7">
         <v>35</v>
@@ -6985,13 +6964,13 @@
         <v>25513</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7038,13 @@
         <v>84296</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
       <c r="H29" s="7">
         <v>96</v>
@@ -7074,13 +7053,13 @@
         <v>60156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>589</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
         <v>217</v>
@@ -7089,13 +7068,13 @@
         <v>144452</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>262</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7089,13 @@
         <v>333828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>594</v>
+        <v>407</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H30" s="7">
         <v>461</v>
@@ -7125,13 +7104,13 @@
         <v>310225</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>940</v>
@@ -7140,13 +7119,13 @@
         <v>644053</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7140,13 @@
         <v>164485</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H31" s="7">
         <v>239</v>
@@ -7176,13 +7155,13 @@
         <v>159016</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>597</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>606</v>
+        <v>108</v>
       </c>
       <c r="M31" s="7">
         <v>474</v>
@@ -7191,13 +7170,13 @@
         <v>323501</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>109</v>
+        <v>600</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7191,13 @@
         <v>41982</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="H32" s="7">
         <v>78</v>
@@ -7227,13 +7206,13 @@
         <v>52596</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>611</v>
+        <v>330</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="M32" s="7">
         <v>135</v>
@@ -7242,13 +7221,13 @@
         <v>94579</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,7 +7283,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
